--- a/cadeaux.xlsx
+++ b/cadeaux.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\slemoine\privé perso\PortableGit\lenopgm\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15506" windowHeight="6137"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15506" windowHeight="6137" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$91</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="173">
   <si>
     <t>peluche paillettes poisson-licorne bleu/violet</t>
   </si>
@@ -194,9 +198,6 @@
     <t>playmobil premier age château &amp; princesse</t>
   </si>
   <si>
-    <t>Eli ?</t>
-  </si>
-  <si>
     <t>livre: "l'EAU"</t>
   </si>
   <si>
@@ -237,13 +238,322 @@
   </si>
   <si>
     <t>lego: caserne de pompiers (incomplet)</t>
+  </si>
+  <si>
+    <t>bd: Yakari &amp; Grand Aigle</t>
+  </si>
+  <si>
+    <t>lego: bolide de Cole (ninja noir) 20€</t>
+  </si>
+  <si>
+    <t>lego: QG de police (camion-prison, moto, quad) 20€</t>
+  </si>
+  <si>
+    <t>lego: 60108 hélicoptère pompier 6€</t>
+  </si>
+  <si>
+    <t>lego: 60122 véhicule chenille volcan 8€</t>
+  </si>
+  <si>
+    <t>lego: 71706 Cole's speeder car 6€</t>
+  </si>
+  <si>
+    <t>lego: 60082 voiture + remorque + buggy 6€</t>
+  </si>
+  <si>
+    <t>lego: 60128 police pursuit 2x voiture 10€</t>
+  </si>
+  <si>
+    <t>petit ours brun va a l'école</t>
+  </si>
+  <si>
+    <t>petit ours brun aime compter</t>
+  </si>
+  <si>
+    <t>Emmanuelle</t>
+  </si>
+  <si>
+    <t>Esmeralda</t>
+  </si>
+  <si>
+    <t>Eustache</t>
+  </si>
+  <si>
+    <t>Pia</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joggings, </t>
+  </si>
+  <si>
+    <t>playmobiles, yakari</t>
+  </si>
+  <si>
+    <t>lego, cars, motos</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>victime</t>
+  </si>
+  <si>
+    <t>bis</t>
+  </si>
+  <si>
+    <t>chien-robot</t>
+  </si>
+  <si>
+    <t>arc NERF</t>
+  </si>
+  <si>
+    <t>piano</t>
+  </si>
+  <si>
+    <t>guitare</t>
+  </si>
+  <si>
+    <t>mes premières énigmes objets</t>
+  </si>
+  <si>
+    <t>la chasse aux monstres</t>
+  </si>
+  <si>
+    <t>drôles de lutins</t>
+  </si>
+  <si>
+    <t>pokémon académie de combat</t>
+  </si>
+  <si>
+    <t>petit ours brun</t>
+  </si>
+  <si>
+    <t>chats, musique, danser, petit ours brun</t>
+  </si>
+  <si>
+    <t>âge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3-6</t>
+  </si>
+  <si>
+    <t>duplo</t>
+  </si>
+  <si>
+    <t>duplo Toy Story</t>
+  </si>
+  <si>
+    <t>grande plaque duplo</t>
+  </si>
+  <si>
+    <t>bd PIA</t>
+  </si>
+  <si>
+    <t>Yakari</t>
+  </si>
+  <si>
+    <t>playmobil ranch</t>
+  </si>
+  <si>
+    <t>chien robot</t>
+  </si>
+  <si>
+    <t>jeu à dents Lion</t>
+  </si>
+  <si>
+    <t>playmobil château/princesse</t>
+  </si>
+  <si>
+    <t>imagier EN/FR</t>
+  </si>
+  <si>
+    <t>? magasine figurine à peindre Reine des Neiges 3-6ans</t>
+  </si>
+  <si>
+    <t>? peluche poisson-licorne</t>
+  </si>
+  <si>
+    <t>bd picsou PIA</t>
+  </si>
+  <si>
+    <t>petit ours brun a perdu son doudou</t>
+  </si>
+  <si>
+    <t>bd: 50 surprises au pays des dragons</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5-12</t>
+  </si>
+  <si>
+    <t>lego: mandalorians 75267 (boite)</t>
+  </si>
+  <si>
+    <t>chevalier 70431</t>
+  </si>
+  <si>
+    <t>pirate 70433</t>
+  </si>
+  <si>
+    <t>lego: city (neuf) course-poursuite 2 voitures 60242</t>
+  </si>
+  <si>
+    <t>lego: (neuf) stuntz 5€ moto 60298</t>
+  </si>
+  <si>
+    <t>lego: (neuf) police motocross + voleur 5€ 60170</t>
+  </si>
+  <si>
+    <t>lego: Robo Champ 3835 (jeu société robots)</t>
+  </si>
+  <si>
+    <t>lego: tractopelle 60072 (boite occasion)</t>
+  </si>
+  <si>
+    <t>Emma ?</t>
+  </si>
+  <si>
+    <t>lego: creator voiture de course 31100 (neuf)</t>
+  </si>
+  <si>
+    <t>lego: creator dinosaures 31058</t>
+  </si>
+  <si>
+    <t>meubles poupées bleu &amp; rouge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lego: creator mini-voiture 2,5€ 31027 </t>
+  </si>
+  <si>
+    <t>lego: rally car jaune 5€ 60113</t>
+  </si>
+  <si>
+    <t>lego: hélicoptère postal 60100</t>
+  </si>
+  <si>
+    <t>lego: nacelle 60054</t>
+  </si>
+  <si>
+    <t>lego: police camion canin + moto 7285</t>
+  </si>
+  <si>
+    <t>lego: hélicoptère ninjago 70746 (MANQUE ninja jaune)</t>
+  </si>
+  <si>
+    <t>lego: Harry Potter forêt interdit 4865 (vrac) Harry, Hermione, Haggrid, Voldemort</t>
+  </si>
+  <si>
+    <t>lego: vrac caserne pompier + camion pompier</t>
+  </si>
+  <si>
+    <t>lego: technic Quad 12€ 8262</t>
+  </si>
+  <si>
+    <t>lego: lapin de Pâque 30583</t>
+  </si>
+  <si>
+    <t>Emma ? Cassandre ?</t>
+  </si>
+  <si>
+    <t>Cassandre ?</t>
+  </si>
+  <si>
+    <t>lego: classic monstres créatifs 11017</t>
+  </si>
+  <si>
+    <t>lego: classic mini blanc 11012</t>
+  </si>
+  <si>
+    <t>Barbie articulée</t>
+  </si>
+  <si>
+    <t>le petit théatre de la fontaine (avec des masques)</t>
+  </si>
+  <si>
+    <t>Pia ?</t>
+  </si>
+  <si>
+    <t>livre bois</t>
+  </si>
+  <si>
+    <t>lego Harry Potter + voiture ?</t>
+  </si>
+  <si>
+    <t>imagier ?</t>
+  </si>
+  <si>
+    <t>livre Loup à toucher ?</t>
+  </si>
+  <si>
+    <t>ma première bible ?</t>
+  </si>
+  <si>
+    <t>lego basic mini blanc</t>
+  </si>
+  <si>
+    <t>livre Cycle de L'EAU</t>
+  </si>
+  <si>
+    <t>livre Perdu ? Retrouvé ! (pingouin)</t>
+  </si>
+  <si>
+    <t>Perdu ? Retrouvé ! (pingouin)</t>
+  </si>
+  <si>
+    <t>La Pomme Rouge (jap noir &amp; blanc &amp; rouge très joli)</t>
+  </si>
+  <si>
+    <t>Le Roi Lion (joli)</t>
+  </si>
+  <si>
+    <t>Le Roi Lion (très joli)</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>Mortelle Adèle, nature</t>
+  </si>
+  <si>
+    <t>figurine fée mobile</t>
+  </si>
+  <si>
+    <t>imagier couleurs</t>
+  </si>
+  <si>
+    <t>petit bleu &amp; petit jaune</t>
+  </si>
+  <si>
+    <t>jeu énigmes</t>
+  </si>
+  <si>
+    <t>titi compte</t>
+  </si>
+  <si>
+    <t>bocal</t>
+  </si>
+  <si>
+    <t>nacelle lego</t>
+  </si>
+  <si>
+    <t>vice versa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +565,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -280,9 +613,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,384 +902,1266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="43.4609375" customWidth="1"/>
-    <col min="3" max="3" width="7.69140625" customWidth="1"/>
-    <col min="4" max="4" width="9.07421875" customWidth="1"/>
+    <col min="3" max="3" width="4.07421875" customWidth="1"/>
+    <col min="4" max="4" width="7.69140625" customWidth="1"/>
+    <col min="5" max="5" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>62</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
         <v>37</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>50</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>60</v>
       </c>
       <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
         <v>57</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>62</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>59</v>
       </c>
-      <c r="I35" t="s">
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F91"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="2.3828125" customWidth="1"/>
+    <col min="4" max="4" width="3.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2">
+        <v>42369</v>
+      </c>
+      <c r="C1">
+        <f>DATEDIF(B1, B16, "y")</f>
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <f>ROUNDUP((DATEDIF(B1, B16, "m"))/12,1)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42501</v>
+      </c>
+      <c r="C2">
+        <f>DATEDIF(B2, B16, "y")</f>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <f>ROUNDUP((DATEDIF(B2, B16, "m"))/12,1)</f>
+        <v>7.6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43387</v>
+      </c>
+      <c r="C3">
+        <f>DATEDIF(B3, B16, "y")</f>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f>ROUNDUP((DATEDIF(B3, B16, "m"))/12,1)</f>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44457</v>
+      </c>
+      <c r="C4">
+        <f>DATEDIF(B4, B16, "y")</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>ROUNDUP((DATEDIF(B4, B16, "m"))/12,1)</f>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45041</v>
+      </c>
+      <c r="C5">
+        <f>DATEDIF(B5, B16, "y")</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>ROUNDUP((DATEDIF(B5, B16, "m"))/12,1)</f>
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43269</v>
+      </c>
+      <c r="C6">
+        <f>DATEDIF(B6, B16, "y")</f>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f>ROUNDUP((DATEDIF(B6, B16, "m"))/12,1)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43972</v>
+      </c>
+      <c r="C7">
+        <f>DATEDIF(B7, B16, "y")</f>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f>ROUNDUP((DATEDIF(B7, B16, "m"))/12,1)</f>
+        <v>3.6</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45059</v>
+      </c>
+      <c r="C8">
+        <f>DATEDIF(B8, B16, "y")</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>ROUNDUP((DATEDIF(B8, B16, "m"))/12,1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43550</v>
+      </c>
+      <c r="C9">
+        <f>DATEDIF(B9, B16, "y")</f>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f>ROUNDUP((DATEDIF(B9, B16, "m"))/12,1)</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" t="s">
-        <v>70</v>
+      <c r="B10" s="2">
+        <v>44629</v>
+      </c>
+      <c r="C10">
+        <f>DATEDIF(B10, B16, "y")</f>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>ROUNDUP((DATEDIF(B10, B16, "m"))/12,1)</f>
+        <v>1.8</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44225</v>
+      </c>
+      <c r="C11">
+        <f>DATEDIF(B11, B16, "y")</f>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f>ROUNDUP((DATEDIF(B11, B16, "m"))/12,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45191</v>
+      </c>
+      <c r="C12">
+        <f>DATEDIF(B12, B16, "y")</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>ROUNDUP((DATEDIF(B12, B16, "m"))/12,1)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45282</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45285</v>
       </c>
     </row>
   </sheetData>

--- a/cadeaux.xlsx
+++ b/cadeaux.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15506" windowHeight="6137" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15506" windowHeight="6137"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -405,9 +405,6 @@
     <t>pirate 70433</t>
   </si>
   <si>
-    <t>lego: city (neuf) course-poursuite 2 voitures 60242</t>
-  </si>
-  <si>
     <t>lego: (neuf) stuntz 5€ moto 60298</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
     <t>Emma ?</t>
   </si>
   <si>
-    <t>lego: creator voiture de course 31100 (neuf)</t>
-  </si>
-  <si>
     <t>lego: creator dinosaures 31058</t>
   </si>
   <si>
@@ -547,6 +541,12 @@
   </si>
   <si>
     <t>vice versa</t>
+  </si>
+  <si>
+    <t>lego: city (neuf) course-poursuite 2 voitures 60242 20-25€</t>
+  </si>
+  <si>
+    <t>lego: creator voiture de course 31100 (neuf) ~15€</t>
   </si>
 </sst>
 </file>
@@ -593,12 +593,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -613,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -622,6 +640,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -937,7 +959,7 @@
       <c r="A2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -993,7 +1015,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
@@ -1035,7 +1057,7 @@
       <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1108,7 +1130,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+      <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1155,7 +1177,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
@@ -1169,7 +1191,7 @@
       <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1210,7 +1232,7 @@
       <c r="A30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D30" t="s">
@@ -1218,7 +1240,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
+      <c r="B31" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1240,7 +1262,7 @@
       <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1254,7 +1276,7 @@
       <c r="A35" t="s">
         <v>59</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D35" t="s">
@@ -1303,7 +1325,7 @@
       <c r="A40" t="s">
         <v>66</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1311,7 +1333,7 @@
       <c r="A41" t="s">
         <v>59</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1322,7 +1344,7 @@
       <c r="A42" t="s">
         <v>66</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1399,7 +1421,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B52" t="s">
+      <c r="B52" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -1412,7 +1434,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B54" t="s">
+      <c r="B54" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -1420,7 +1442,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
+      <c r="B55" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -1472,7 +1494,7 @@
       <c r="A60" t="s">
         <v>106</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1488,7 +1510,7 @@
       <c r="A62" t="s">
         <v>59</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -1544,7 +1566,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1555,7 +1577,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1566,7 +1588,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1576,14 +1598,14 @@
       <c r="A70" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>147</v>
+      <c r="B70" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="C70">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -1591,7 +1613,7 @@
         <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -1605,13 +1627,13 @@
         <v>66</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72">
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -1619,13 +1641,13 @@
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C73">
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -1633,7 +1655,7 @@
         <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C74">
         <v>7</v>
@@ -1644,7 +1666,7 @@
         <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1652,7 +1674,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -1660,7 +1682,7 @@
         <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -1671,7 +1693,7 @@
         <v>66</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1682,7 +1704,7 @@
         <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1692,8 +1714,8 @@
       <c r="A80" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>137</v>
+      <c r="B80" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
@@ -1704,7 +1726,7 @@
         <v>66</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -1712,7 +1734,7 @@
         <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -1720,13 +1742,13 @@
         <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C83">
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -1734,10 +1756,10 @@
         <v>66</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -1745,7 +1767,7 @@
         <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C85">
         <v>9</v>
@@ -1756,10 +1778,10 @@
         <v>66</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D86" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -1767,15 +1789,15 @@
         <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>59</v>
       </c>
-      <c r="B88" t="s">
-        <v>159</v>
+      <c r="B88" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -1786,7 +1808,7 @@
         <v>59</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
@@ -1794,7 +1816,7 @@
         <v>59</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
@@ -1802,7 +1824,7 @@
         <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1816,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1835,11 +1857,11 @@
       </c>
       <c r="C1">
         <f>DATEDIF(B1, B16, "y")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <f>ROUNDUP((DATEDIF(B1, B16, "m"))/12,1)</f>
-        <v>8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E1" t="s">
         <v>86</v>
@@ -1848,7 +1870,7 @@
         <v>109</v>
       </c>
       <c r="I1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -1864,16 +1886,16 @@
       </c>
       <c r="D2">
         <f>ROUNDUP((DATEDIF(B2, B16, "m"))/12,1)</f>
-        <v>7.6</v>
+        <v>7.8999999999999995</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -1889,7 +1911,7 @@
       </c>
       <c r="D3">
         <f>ROUNDUP((DATEDIF(B3, B16, "m"))/12,1)</f>
-        <v>5.1999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
@@ -1898,13 +1920,13 @@
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1920,19 +1942,19 @@
       </c>
       <c r="D4">
         <f>ROUNDUP((DATEDIF(B4, B16, "m"))/12,1)</f>
-        <v>2.3000000000000003</v>
+        <v>2.5</v>
       </c>
       <c r="E4" t="s">
         <v>102</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -1948,16 +1970,16 @@
       </c>
       <c r="D5">
         <f>ROUNDUP((DATEDIF(B5, B16, "m"))/12,1)</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1973,7 +1995,7 @@
       </c>
       <c r="D6">
         <f>ROUNDUP((DATEDIF(B6, B16, "m"))/12,1)</f>
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
@@ -1985,7 +2007,7 @@
         <v>111</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -2001,7 +2023,7 @@
       </c>
       <c r="D7">
         <f>ROUNDUP((DATEDIF(B7, B16, "m"))/12,1)</f>
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>114</v>
@@ -2013,7 +2035,7 @@
         <v>116</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -2029,13 +2051,13 @@
       </c>
       <c r="D8">
         <f>ROUNDUP((DATEDIF(B8, B16, "m"))/12,1)</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -2047,14 +2069,14 @@
       </c>
       <c r="C9">
         <f>DATEDIF(B9, B16, "y")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <f>ROUNDUP((DATEDIF(B9, B16, "m"))/12,1)</f>
-        <v>4.6999999999999993</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>96</v>
@@ -2075,11 +2097,11 @@
       </c>
       <c r="C10">
         <f>DATEDIF(B10, B16, "y")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <f>ROUNDUP((DATEDIF(B10, B16, "m"))/12,1)</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>95</v>
@@ -2097,11 +2119,11 @@
       </c>
       <c r="C11">
         <f>DATEDIF(B11, B16, "y")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <f>ROUNDUP((DATEDIF(B11, B16, "m"))/12,1)</f>
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="E11" t="s">
         <v>101</v>
@@ -2119,7 +2141,7 @@
         <v>6</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -2135,7 +2157,7 @@
       </c>
       <c r="D12">
         <f>ROUNDUP((DATEDIF(B12, B16, "m"))/12,1)</f>
-        <v>0.30000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>113</v>
@@ -2144,7 +2166,7 @@
         <v>115</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -2158,10 +2180,10 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <f ca="1">TODAY()</f>
-        <v>45282</v>
+        <v>45454</v>
       </c>
       <c r="B16" s="2">
-        <v>45285</v>
+        <v>45381</v>
       </c>
     </row>
   </sheetData>

--- a/cadeaux.xlsx
+++ b/cadeaux.xlsx
@@ -13,10 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="noël24" sheetId="3" r:id="rId2"/>
+    <sheet name="2023" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$73</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="173">
   <si>
     <t>peluche paillettes poisson-licorne bleu/violet</t>
   </si>
@@ -123,9 +124,6 @@
     <t>frisby jaune M&amp;Ms</t>
   </si>
   <si>
-    <t>boîte à musique stridente jolie (légèrement tâchée)</t>
-  </si>
-  <si>
     <t>boîte à bijoux rose "Ballerina" + journal intime (légèrement abimé)</t>
   </si>
   <si>
@@ -156,12 +154,6 @@
     <t>kaléïdoscope</t>
   </si>
   <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>mon premier imagier EN/FR</t>
-  </si>
-  <si>
     <t>talkie-walkies bleus</t>
   </si>
   <si>
@@ -180,9 +172,6 @@
     <t>Julia</t>
   </si>
   <si>
-    <t>mini-livres SAMSAM x2</t>
-  </si>
-  <si>
     <t>petit livre "Jean-Ferdinant Poussin Cadet" (abimé)</t>
   </si>
   <si>
@@ -195,15 +184,6 @@
     <t>album bébé</t>
   </si>
   <si>
-    <t>playmobil premier age château &amp; princesse</t>
-  </si>
-  <si>
-    <t>livre: "l'EAU"</t>
-  </si>
-  <si>
-    <t>Emma (+grande)</t>
-  </si>
-  <si>
     <t>puzzle PIKACHU (difficile) ~40pc ?</t>
   </si>
   <si>
@@ -237,15 +217,6 @@
     <t>lego: bolide de Kai (ninja rouge) 10€</t>
   </si>
   <si>
-    <t>lego: caserne de pompiers (incomplet)</t>
-  </si>
-  <si>
-    <t>bd: Yakari &amp; Grand Aigle</t>
-  </si>
-  <si>
-    <t>lego: bolide de Cole (ninja noir) 20€</t>
-  </si>
-  <si>
     <t>lego: QG de police (camion-prison, moto, quad) 20€</t>
   </si>
   <si>
@@ -309,9 +280,6 @@
     <t>bis</t>
   </si>
   <si>
-    <t>chien-robot</t>
-  </si>
-  <si>
     <t>arc NERF</t>
   </si>
   <si>
@@ -351,9 +319,6 @@
     <t>duplo</t>
   </si>
   <si>
-    <t>duplo Toy Story</t>
-  </si>
-  <si>
     <t>grande plaque duplo</t>
   </si>
   <si>
@@ -384,9 +349,6 @@
     <t>? peluche poisson-licorne</t>
   </si>
   <si>
-    <t>bd picsou PIA</t>
-  </si>
-  <si>
     <t>petit ours brun a perdu son doudou</t>
   </si>
   <si>
@@ -435,9 +397,6 @@
     <t>lego: hélicoptère postal 60100</t>
   </si>
   <si>
-    <t>lego: nacelle 60054</t>
-  </si>
-  <si>
     <t>lego: police camion canin + moto 7285</t>
   </si>
   <si>
@@ -459,15 +418,9 @@
     <t>Emma ? Cassandre ?</t>
   </si>
   <si>
-    <t>Cassandre ?</t>
-  </si>
-  <si>
     <t>lego: classic monstres créatifs 11017</t>
   </si>
   <si>
-    <t>lego: classic mini blanc 11012</t>
-  </si>
-  <si>
     <t>Barbie articulée</t>
   </si>
   <si>
@@ -547,6 +500,54 @@
   </si>
   <si>
     <t>lego: creator voiture de course 31100 (neuf) ~15€</t>
+  </si>
+  <si>
+    <t>joggings, lego pokémon</t>
+  </si>
+  <si>
+    <t>campingcar Barbie</t>
+  </si>
+  <si>
+    <t>chats, musique, danser, petit ours brun, pat'patrouille, hélicoptère</t>
+  </si>
+  <si>
+    <t>livre autonome</t>
+  </si>
+  <si>
+    <t>robes longues</t>
+  </si>
+  <si>
+    <t>piles</t>
+  </si>
+  <si>
+    <t>pokémon jcc</t>
+  </si>
+  <si>
+    <t>magic maze</t>
+  </si>
+  <si>
+    <t>dessiner c'est gagné / pictionary</t>
+  </si>
+  <si>
+    <t>lego, cars, motos, actionman moto, chevaliers, petites activité à faire, outils</t>
+  </si>
+  <si>
+    <t>jouets à pile (ordinateur)</t>
+  </si>
+  <si>
+    <t>livre musical</t>
+  </si>
+  <si>
+    <t>pat'patrouille / pepapig / reine des neiges</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6-7</t>
+  </si>
+  <si>
+    <t>magazine Reine-des-Neiges</t>
+  </si>
+  <si>
+    <t>arc nerf ?</t>
   </si>
 </sst>
 </file>
@@ -593,18 +594,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -631,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -641,9 +636,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -940,26 +933,26 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -971,7 +964,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -982,434 +975,422 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
       <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
       <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
       <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B31" s="11" t="s">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="10" t="s">
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42">
         <v>3</v>
       </c>
-      <c r="E34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>109</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>110</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>111</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1417,418 +1398,244 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>155</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B52" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1</v>
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
-        <v>94</v>
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>65</v>
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>9</v>
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>106</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>107</v>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" t="s">
-        <v>108</v>
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>83</v>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" t="s">
-        <v>121</v>
+      <c r="B63" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64">
-        <v>6</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68">
-        <v>5</v>
+        <v>127</v>
+      </c>
+      <c r="D68" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71">
-        <v>6</v>
-      </c>
-      <c r="D71" t="s">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-      <c r="D72" t="s">
-        <v>129</v>
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="D73" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" t="s">
-        <v>130</v>
-      </c>
-      <c r="C74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" t="s">
         <v>144</v>
       </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>66</v>
-      </c>
-      <c r="B77" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>66</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>66</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" t="s">
-        <v>138</v>
-      </c>
-      <c r="C83">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>66</v>
-      </c>
-      <c r="B85" t="s">
-        <v>140</v>
-      </c>
-      <c r="C85">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D86" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>59</v>
-      </c>
-      <c r="B87" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>59</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D88" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>59</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B90" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>59</v>
-      </c>
-      <c r="B91" t="s">
-        <v>160</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F91"/>
+  <autoFilter ref="A1:F73"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1836,10 +1643,336 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="2.3828125" customWidth="1"/>
+    <col min="4" max="4" width="3.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2">
+        <v>42369</v>
+      </c>
+      <c r="C1">
+        <f>DATEDIF(B1, B16, "y")</f>
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <f>ROUNDUP((DATEDIF(B1, B16, "m"))/12,1)</f>
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42501</v>
+      </c>
+      <c r="C2">
+        <f>DATEDIF(B2, B16, "y")</f>
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>ROUNDUP((DATEDIF(B2, B16, "m"))/12,1)</f>
+        <v>8.6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43387</v>
+      </c>
+      <c r="C3">
+        <f>DATEDIF(B3, B16, "y")</f>
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f>ROUNDUP((DATEDIF(B3, B16, "m"))/12,1)</f>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="E3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44457</v>
+      </c>
+      <c r="C4">
+        <f>DATEDIF(B4, B16, "y")</f>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>ROUNDUP((DATEDIF(B4, B16, "m"))/12,1)</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45041</v>
+      </c>
+      <c r="C5">
+        <f>DATEDIF(B5, B16, "y")</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>ROUNDUP((DATEDIF(B5, B16, "m"))/12,1)</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43269</v>
+      </c>
+      <c r="C6">
+        <f>DATEDIF(B6, B16, "y")</f>
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f>ROUNDUP((DATEDIF(B6, B16, "m"))/12,1)</f>
+        <v>6.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43972</v>
+      </c>
+      <c r="C7">
+        <f>DATEDIF(B7, B16, "y")</f>
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f>ROUNDUP((DATEDIF(B7, B16, "m"))/12,1)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45059</v>
+      </c>
+      <c r="C8">
+        <f>DATEDIF(B8, B16, "y")</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>ROUNDUP((DATEDIF(B8, B16, "m"))/12,1)</f>
+        <v>1.6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43550</v>
+      </c>
+      <c r="C9">
+        <f>DATEDIF(B9, B16, "y")</f>
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f>ROUNDUP((DATEDIF(B9, B16, "m"))/12,1)</f>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44629</v>
+      </c>
+      <c r="C10">
+        <f>DATEDIF(B10, B16, "y")</f>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f>ROUNDUP((DATEDIF(B10, B16, "m"))/12,1)</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44225</v>
+      </c>
+      <c r="C11">
+        <f>DATEDIF(B11, B16, "y")</f>
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f>ROUNDUP((DATEDIF(B11, B16, "m"))/12,1)</f>
+        <v>3.9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45191</v>
+      </c>
+      <c r="C12">
+        <f>DATEDIF(B12, B16, "y")</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>ROUNDUP((DATEDIF(B12, B16, "m"))/12,1)</f>
+        <v>1.3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45607</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1850,7 +1983,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2">
         <v>42369</v>
@@ -1861,41 +1994,41 @@
       </c>
       <c r="D1">
         <f>ROUNDUP((DATEDIF(B1, B16, "m"))/12,1)</f>
-        <v>8.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2">
         <v>42501</v>
       </c>
       <c r="C2">
         <f>DATEDIF(B2, B16, "y")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <f>ROUNDUP((DATEDIF(B2, B16, "m"))/12,1)</f>
-        <v>7.8999999999999995</v>
+        <v>8.6</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -1907,26 +2040,26 @@
       </c>
       <c r="C3">
         <f>DATEDIF(B3, B16, "y")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <f>ROUNDUP((DATEDIF(B3, B16, "m"))/12,1)</f>
-        <v>5.5</v>
+        <v>6.1999999999999993</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="L3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1938,48 +2071,48 @@
       </c>
       <c r="C4">
         <f>DATEDIF(B4, B16, "y")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <f>ROUNDUP((DATEDIF(B4, B16, "m"))/12,1)</f>
-        <v>2.5</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2">
         <v>45041</v>
       </c>
       <c r="C5">
         <f>DATEDIF(B5, B16, "y")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f>ROUNDUP((DATEDIF(B5, B16, "m"))/12,1)</f>
-        <v>1</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1991,23 +2124,23 @@
       </c>
       <c r="C6">
         <f>DATEDIF(B6, B16, "y")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <f>ROUNDUP((DATEDIF(B6, B16, "m"))/12,1)</f>
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -2019,45 +2152,45 @@
       </c>
       <c r="C7">
         <f>DATEDIF(B7, B16, "y")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <f>ROUNDUP((DATEDIF(B7, B16, "m"))/12,1)</f>
-        <v>3.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2">
         <v>45059</v>
       </c>
       <c r="C8">
         <f>DATEDIF(B8, B16, "y")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f>ROUNDUP((DATEDIF(B8, B16, "m"))/12,1)</f>
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -2073,24 +2206,24 @@
       </c>
       <c r="D9">
         <f>ROUNDUP((DATEDIF(B9, B16, "m"))/12,1)</f>
-        <v>5</v>
+        <v>5.6999999999999993</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2">
         <v>44629</v>
@@ -2101,13 +2234,13 @@
       </c>
       <c r="D10">
         <f>ROUNDUP((DATEDIF(B10, B16, "m"))/12,1)</f>
-        <v>2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -2123,67 +2256,67 @@
       </c>
       <c r="D11">
         <f>ROUNDUP((DATEDIF(B11, B16, "m"))/12,1)</f>
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2">
         <v>45191</v>
       </c>
       <c r="C12">
         <f>DATEDIF(B12, B16, "y")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <f>ROUNDUP((DATEDIF(B12, B16, "m"))/12,1)</f>
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <f ca="1">TODAY()</f>
-        <v>45454</v>
+        <v>45607</v>
       </c>
       <c r="B16" s="2">
-        <v>45381</v>
+        <v>45651</v>
       </c>
     </row>
   </sheetData>

--- a/cadeaux.xlsx
+++ b/cadeaux.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15506" windowHeight="6137"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15506" windowHeight="6137" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -919,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -1645,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1955,7 +1955,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <f ca="1">TODAY()</f>
-        <v>45607</v>
+        <v>45643</v>
       </c>
       <c r="B16" s="2">
         <v>45651</v>
@@ -2313,7 +2313,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <f ca="1">TODAY()</f>
-        <v>45607</v>
+        <v>45643</v>
       </c>
       <c r="B16" s="2">
         <v>45651</v>
